--- a/Results.xlsx
+++ b/Results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>CABG</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Pre+Post Log Reg</t>
+  </si>
+  <si>
+    <t>STS (paper)</t>
+  </si>
+  <si>
+    <t>STS (test set)</t>
+  </si>
+  <si>
+    <t>Pre+Post Stacked LogReg (w/o STS)</t>
   </si>
 </sst>
 </file>
@@ -118,7 +127,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -143,14 +152,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,8 +182,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="36">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -177,6 +199,12 @@
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -189,6 +217,12 @@
     <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,28 +552,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:M13"/>
+  <dimension ref="A5:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:13">
-      <c r="C5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="str">
@@ -559,86 +593,86 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>28945</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>8500</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>5295</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f t="shared" ref="G6:G7" si="1">C6</f>
         <v>28945</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>8500</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>5295</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.69699999999999995</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.65600000000000003</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>0.63200000000000001</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
         <v>0.69699999999999995</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>0.65600000000000003</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>0.63200000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="2"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.69199999999999995</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.6</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.64900000000000002</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>0.70099999999999996</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>0.58199999999999996</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>0.63600000000000001</v>
       </c>
       <c r="K8">
@@ -655,29 +689,29 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="2"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.68400000000000005</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>0.626</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>0.629</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>0.70099999999999996</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>0.54400000000000004</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>0.63300000000000001</v>
       </c>
       <c r="K9">
@@ -694,29 +728,29 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="2"/>
+      <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.72399999999999998</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>0.627</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.65300000000000002</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>0.75700000000000001</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>0.65</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>0.65700000000000003</v>
       </c>
       <c r="K10">
@@ -733,29 +767,29 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="45">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>0.72199999999999998</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0.64500000000000002</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0.65900000000000003</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>0.753</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>0.69299999999999995</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>0.625</v>
       </c>
       <c r="K11">
@@ -772,25 +806,25 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="30">
-      <c r="A12" s="2"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.74</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0.67300000000000004</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>0.68799999999999994</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
       <c r="K12">
         <f t="shared" ref="K12:K13" si="6">IF(G12&gt;C12,1,0)</f>
         <v>0</v>
@@ -805,29 +839,29 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="30">
-      <c r="A13" s="2"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.73299999999999998</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>0.67500000000000004</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>0.67200000000000004</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>0.751</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>0.67700000000000005</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>0.67400000000000004</v>
       </c>
       <c r="K13">
@@ -842,6 +876,206 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="C16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>28945</v>
+      </c>
+      <c r="D17" s="2">
+        <v>8500</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="G18">
+        <f>G7-C18</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:I18" si="9">H7-D18</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="G20" s="7">
+        <f>G8-C20</f>
+        <v>-8.0000000000000071E-3</v>
+      </c>
+      <c r="H20" s="7">
+        <f>H8-D20</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="I20" s="7">
+        <f>I8-E20</f>
+        <v>7.7999999999999958E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.629</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" ref="G21:G24" si="10">G9-C21</f>
+        <v>-8.0000000000000071E-3</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" ref="H21:I21" si="11">H9-D21</f>
+        <v>-5.2999999999999936E-2</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="11"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="10"/>
+        <v>2.300000000000002E-2</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" ref="H22:I22" si="12">H10-D22</f>
+        <v>-3.8999999999999924E-2</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="12"/>
+        <v>6.6000000000000059E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="30">
+      <c r="B23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.621</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="10"/>
+        <v>1.8000000000000016E-2</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" ref="H23:I23" si="13">H11-D23</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="13"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="30">
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="G24" s="7">
+        <f>G13-C24</f>
+        <v>1.2000000000000011E-2</v>
+      </c>
+      <c r="H24" s="7">
+        <f>H13-D24</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="I24" s="7">
+        <f>I13-E24</f>
+        <v>7.1000000000000063E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="5"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>CABG</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>Pre+Post Stacked LogReg (w/o STS)</t>
+  </si>
+  <si>
+    <t># data points (test)</t>
+  </si>
+  <si>
+    <t># data points (total)</t>
+  </si>
+  <si>
+    <t>STS (train set)</t>
   </si>
 </sst>
 </file>
@@ -73,7 +82,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,8 +113,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -127,7 +157,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -164,8 +194,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,8 +218,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="36">
+  <cellStyles count="38">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -205,6 +250,7 @@
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -223,6 +269,7 @@
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -552,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:M25"/>
+  <dimension ref="A5:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -982,7 +1029,7 @@
         <v>0.629</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" ref="G21:G24" si="10">G9-C21</f>
+        <f t="shared" ref="G21:G23" si="10">G9-C21</f>
         <v>-8.0000000000000071E-3</v>
       </c>
       <c r="H21" s="7">
@@ -1076,6 +1123,160 @@
       <c r="B25" s="5"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="C29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="2">
+        <v>28945</v>
+      </c>
+      <c r="D30" s="2">
+        <v>8500</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="2">
+        <f>0.2*C30</f>
+        <v>5789</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:E31" si="14">0.2*D30</f>
+        <v>1700</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="14"/>
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.67100000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.71299999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="30">
+      <c r="B38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0.68300000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="30">
+      <c r="B39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.65900000000000003</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
